--- a/data/pca/factorExposure/factorExposure_2012-08-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-14.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002909733485275091</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001875278195823832</v>
+      </c>
+      <c r="C2">
+        <v>0.02869112577619694</v>
+      </c>
+      <c r="D2">
+        <v>-0.004814403013886602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-2.239825380333755e-05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006665427272051245</v>
+      </c>
+      <c r="C4">
+        <v>0.08424597715584919</v>
+      </c>
+      <c r="D4">
+        <v>-0.06564007894753188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.004952615920471926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01475046094470546</v>
+      </c>
+      <c r="C6">
+        <v>0.1182009986828849</v>
+      </c>
+      <c r="D6">
+        <v>-0.01837000181055376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0001793925754774836</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005055384741634176</v>
+      </c>
+      <c r="C7">
+        <v>0.05944309786329571</v>
+      </c>
+      <c r="D7">
+        <v>-0.03118000947615532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0005740342312124512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.004938539694578779</v>
+      </c>
+      <c r="C8">
+        <v>0.03516982957613619</v>
+      </c>
+      <c r="D8">
+        <v>-0.03664380872344018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0006571468131184027</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.00593854944053015</v>
+      </c>
+      <c r="C9">
+        <v>0.07293828438328728</v>
+      </c>
+      <c r="D9">
+        <v>-0.07059493154887662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0002511959500543264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.001775955403676055</v>
+      </c>
+      <c r="C10">
+        <v>0.05051673652086122</v>
+      </c>
+      <c r="D10">
+        <v>0.1858388067109093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.0007451494347520814</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.006335548115743443</v>
+      </c>
+      <c r="C11">
+        <v>0.0810210905066201</v>
+      </c>
+      <c r="D11">
+        <v>-0.06679560670337811</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0008431450563988372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004686341038282824</v>
+      </c>
+      <c r="C12">
+        <v>0.06533388575865129</v>
+      </c>
+      <c r="D12">
+        <v>-0.05021585528834337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.0022087029048776</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.009448319314201786</v>
+      </c>
+      <c r="C13">
+        <v>0.07070812872057453</v>
+      </c>
+      <c r="D13">
+        <v>-0.05684480901572701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001949811351385223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0008031390653484706</v>
+      </c>
+      <c r="C14">
+        <v>0.04368562897613493</v>
+      </c>
+      <c r="D14">
+        <v>-0.01296112514375349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001537554401064358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006262094727012993</v>
+      </c>
+      <c r="C15">
+        <v>0.04103225604994469</v>
+      </c>
+      <c r="D15">
+        <v>-0.02548176143348082</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0001476570934304832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005461519855336396</v>
+      </c>
+      <c r="C16">
+        <v>0.06492389938551395</v>
+      </c>
+      <c r="D16">
+        <v>-0.0568280554892794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002373640052538763</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008933025504393011</v>
+      </c>
+      <c r="C20">
+        <v>0.06480602027067328</v>
+      </c>
+      <c r="D20">
+        <v>-0.04939122148607589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.00537542364766637</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009558244244310708</v>
+      </c>
+      <c r="C21">
+        <v>0.02203430546524064</v>
+      </c>
+      <c r="D21">
+        <v>-0.04093279628636133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02053142056591839</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007288452589827585</v>
+      </c>
+      <c r="C22">
+        <v>0.0879116060935584</v>
+      </c>
+      <c r="D22">
+        <v>-0.1186049660145215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.02019336038413222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006994282370798114</v>
+      </c>
+      <c r="C23">
+        <v>0.08832183879905645</v>
+      </c>
+      <c r="D23">
+        <v>-0.1197067316041524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001256571278564161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.006242076421379084</v>
+      </c>
+      <c r="C24">
+        <v>0.07731068398219099</v>
+      </c>
+      <c r="D24">
+        <v>-0.06554754300705253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.002887106843459315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003746760643020611</v>
+      </c>
+      <c r="C25">
+        <v>0.07848261467950172</v>
+      </c>
+      <c r="D25">
+        <v>-0.06354550522965942</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001313297091340264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003948905335388186</v>
+      </c>
+      <c r="C26">
+        <v>0.04033802572235816</v>
+      </c>
+      <c r="D26">
+        <v>-0.01925597357433599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007378086966157005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.002563608134519685</v>
+      </c>
+      <c r="C28">
+        <v>0.1004471905271405</v>
+      </c>
+      <c r="D28">
+        <v>0.3269566043463794</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.000833856783731596</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.00350524373955519</v>
+      </c>
+      <c r="C29">
+        <v>0.04739031485014211</v>
+      </c>
+      <c r="D29">
+        <v>-0.01001567386532366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003072177488855464</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.00970680712609134</v>
+      </c>
+      <c r="C30">
+        <v>0.1424311538508608</v>
+      </c>
+      <c r="D30">
+        <v>-0.1071461124962096</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001700420249369399</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006267230427346446</v>
+      </c>
+      <c r="C31">
+        <v>0.04413461263714069</v>
+      </c>
+      <c r="D31">
+        <v>-0.02883328591523278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0003616189678446864</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004531118680336614</v>
+      </c>
+      <c r="C32">
+        <v>0.03875017968283739</v>
+      </c>
+      <c r="D32">
+        <v>-0.01696727058346405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>8.020134454804092e-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.00901364295980415</v>
+      </c>
+      <c r="C33">
+        <v>0.09125900823428194</v>
+      </c>
+      <c r="D33">
+        <v>-0.06188114240593784</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.0009675689734718839</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004820386816153803</v>
+      </c>
+      <c r="C34">
+        <v>0.05843525194961686</v>
+      </c>
+      <c r="D34">
+        <v>-0.05742619885073078</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001716759805147857</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005061921718887939</v>
+      </c>
+      <c r="C35">
+        <v>0.04071867715338223</v>
+      </c>
+      <c r="D35">
+        <v>-0.01368306963987052</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004747865402014365</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.00144330712964718</v>
+      </c>
+      <c r="C36">
+        <v>0.02528635963677035</v>
+      </c>
+      <c r="D36">
+        <v>-0.018759644845496</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002499803621103172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008741511633335849</v>
+      </c>
+      <c r="C38">
+        <v>0.04100607217016638</v>
+      </c>
+      <c r="D38">
+        <v>-0.01244839671376539</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01124826807187744</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001343280022272263</v>
+      </c>
+      <c r="C39">
+        <v>0.1137230382503955</v>
+      </c>
+      <c r="D39">
+        <v>-0.08270827490293593</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.004316531627548079</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002917698077761846</v>
+      </c>
+      <c r="C40">
+        <v>0.09120492351468949</v>
+      </c>
+      <c r="D40">
+        <v>-0.01440663956315085</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.002332751133359288</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007636414958857823</v>
+      </c>
+      <c r="C41">
+        <v>0.04208324119574606</v>
+      </c>
+      <c r="D41">
+        <v>-0.04394244840490214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002088931819277788</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.004152685776575525</v>
+      </c>
+      <c r="C43">
+        <v>0.05480203304729721</v>
+      </c>
+      <c r="D43">
+        <v>-0.02672651093059835</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.008129903094135017</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002149973602069487</v>
+      </c>
+      <c r="C44">
+        <v>0.1046951877967552</v>
+      </c>
+      <c r="D44">
+        <v>-0.06301136191818434</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001817793528280844</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001254781037758662</v>
+      </c>
+      <c r="C46">
+        <v>0.03325472206792101</v>
+      </c>
+      <c r="D46">
+        <v>-0.03392292976641406</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-9.697932792311085e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002950723062638068</v>
+      </c>
+      <c r="C47">
+        <v>0.03482450152081112</v>
+      </c>
+      <c r="D47">
+        <v>-0.01973403349698047</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004634077467206573</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007848022176300463</v>
+      </c>
+      <c r="C48">
+        <v>0.03400786056165948</v>
+      </c>
+      <c r="D48">
+        <v>-0.0261236131025994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.004727849013165366</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01846883713051706</v>
+      </c>
+      <c r="C49">
+        <v>0.1868047412257161</v>
+      </c>
+      <c r="D49">
+        <v>-0.01179753133917039</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0002886210176748696</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.004241019222073183</v>
+      </c>
+      <c r="C50">
+        <v>0.04290555656895013</v>
+      </c>
+      <c r="D50">
+        <v>-0.03726357077910141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-7.6727746156181e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.003952909141422254</v>
+      </c>
+      <c r="C51">
+        <v>0.027166977565451</v>
+      </c>
+      <c r="D51">
+        <v>-0.02275380616281256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.008271195170537211</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02204432137674912</v>
+      </c>
+      <c r="C53">
+        <v>0.1725166728072112</v>
+      </c>
+      <c r="D53">
+        <v>-0.01965095853667125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003084290268271091</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009534217319338775</v>
+      </c>
+      <c r="C54">
+        <v>0.05734146765778535</v>
+      </c>
+      <c r="D54">
+        <v>-0.03973317495711257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001744591889058317</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.01027405608126191</v>
+      </c>
+      <c r="C55">
+        <v>0.1087899002501374</v>
+      </c>
+      <c r="D55">
+        <v>-0.0326883195778248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.00838028983317555</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.0215344220991703</v>
+      </c>
+      <c r="C56">
+        <v>0.1748472016248753</v>
+      </c>
+      <c r="D56">
+        <v>-0.01290094447378159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.0008287891248825911</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01684933227028519</v>
+      </c>
+      <c r="C58">
+        <v>0.1068518206042956</v>
+      </c>
+      <c r="D58">
+        <v>-0.05897553992557704</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.003127789198407939</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009480794879151096</v>
+      </c>
+      <c r="C59">
+        <v>0.1659731537852319</v>
+      </c>
+      <c r="D59">
+        <v>0.3485223208545674</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.007968623192089602</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02670116399073578</v>
+      </c>
+      <c r="C60">
+        <v>0.2246873506570422</v>
+      </c>
+      <c r="D60">
+        <v>-0.01759501029798834</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01043428539485614</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001845755202528286</v>
+      </c>
+      <c r="C61">
+        <v>0.09510062015441664</v>
+      </c>
+      <c r="D61">
+        <v>-0.05920438162776265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1498849924663259</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1537202735635916</v>
+      </c>
+      <c r="C62">
+        <v>0.1022827054552912</v>
+      </c>
+      <c r="D62">
+        <v>-0.0166992746446306</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0006311180879351066</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006477549088233283</v>
+      </c>
+      <c r="C63">
+        <v>0.05421031791790379</v>
+      </c>
+      <c r="D63">
+        <v>-0.0322212309655938</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01010111416590891</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01729289947044273</v>
+      </c>
+      <c r="C64">
+        <v>0.1073307889178427</v>
+      </c>
+      <c r="D64">
+        <v>-0.05207852538933937</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.007682989903703426</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01767308771634787</v>
+      </c>
+      <c r="C65">
+        <v>0.1196664059326982</v>
+      </c>
+      <c r="D65">
+        <v>-0.01927476116511055</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.002181691644725957</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01305538349584413</v>
+      </c>
+      <c r="C66">
+        <v>0.1622105770724654</v>
+      </c>
+      <c r="D66">
+        <v>-0.1153347588277517</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.005723288343977674</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01527871308581306</v>
+      </c>
+      <c r="C67">
+        <v>0.07370354957433455</v>
+      </c>
+      <c r="D67">
+        <v>-0.02526891319611058</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.005139294384852447</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0004133200712659861</v>
+      </c>
+      <c r="C68">
+        <v>0.08165836156287611</v>
+      </c>
+      <c r="D68">
+        <v>0.2612391560075215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0004228376157848355</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006328291370817382</v>
+      </c>
+      <c r="C69">
+        <v>0.05186143433706005</v>
+      </c>
+      <c r="D69">
+        <v>-0.03559327026084677</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001490856640382316</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002635911693321075</v>
+      </c>
+      <c r="C70">
+        <v>0.008881541941940073</v>
+      </c>
+      <c r="D70">
+        <v>0.001257631217178249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-5.309203293933216e-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004353443015298462</v>
+      </c>
+      <c r="C71">
+        <v>0.08603301570814711</v>
+      </c>
+      <c r="D71">
+        <v>0.3027621061630427</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.004448835597485466</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01823206957054156</v>
+      </c>
+      <c r="C72">
+        <v>0.1575141969873353</v>
+      </c>
+      <c r="D72">
+        <v>-0.008491946090078348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.009382332468416195</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.0317833858722377</v>
+      </c>
+      <c r="C73">
+        <v>0.2825746139308965</v>
+      </c>
+      <c r="D73">
+        <v>-0.05611567734759503</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005953418678573057</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001902675957103885</v>
+      </c>
+      <c r="C74">
+        <v>0.1036595978270577</v>
+      </c>
+      <c r="D74">
+        <v>-0.03032208860464142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.0006520667663654468</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01210898827502961</v>
+      </c>
+      <c r="C75">
+        <v>0.1198988634415638</v>
+      </c>
+      <c r="D75">
+        <v>-0.0263654744244063</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01042086040895428</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.0223725535947947</v>
+      </c>
+      <c r="C76">
+        <v>0.1462815108535829</v>
+      </c>
+      <c r="D76">
+        <v>-0.05501220850966031</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.006310561206138289</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02160468597320115</v>
+      </c>
+      <c r="C77">
+        <v>0.1108965788233692</v>
+      </c>
+      <c r="D77">
+        <v>-0.04577355681619933</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.003927157882844669</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01446934102127736</v>
+      </c>
+      <c r="C78">
+        <v>0.1004563923504657</v>
+      </c>
+      <c r="D78">
+        <v>-0.08016969561391452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02699569567118774</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03939017337397603</v>
+      </c>
+      <c r="C79">
+        <v>0.1575828017739506</v>
+      </c>
+      <c r="D79">
+        <v>-0.02840449158332971</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006745375867223213</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009949181139074694</v>
+      </c>
+      <c r="C80">
+        <v>0.03947410095378594</v>
+      </c>
+      <c r="D80">
+        <v>-0.03055677047090861</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.004849478721176631</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01670491456428121</v>
+      </c>
+      <c r="C81">
+        <v>0.1309616361509</v>
+      </c>
+      <c r="D81">
+        <v>-0.03548067187853093</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.007470793069186804</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02003444422431361</v>
+      </c>
+      <c r="C82">
+        <v>0.1367296452382923</v>
+      </c>
+      <c r="D82">
+        <v>-0.0358187210031591</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.003569577642601461</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.0123192546285739</v>
+      </c>
+      <c r="C83">
+        <v>0.0638452720295284</v>
+      </c>
+      <c r="D83">
+        <v>-0.04604843120682994</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004182991984632362</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.00673073318616892</v>
+      </c>
+      <c r="C84">
+        <v>0.03470294942178993</v>
+      </c>
+      <c r="D84">
+        <v>-0.01468365512116899</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01830542649700264</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02900880421221574</v>
+      </c>
+      <c r="C85">
+        <v>0.1237647722486748</v>
+      </c>
+      <c r="D85">
+        <v>-0.0379703520005512</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003063869788767592</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003773681623530172</v>
+      </c>
+      <c r="C86">
+        <v>0.05132241219724234</v>
+      </c>
+      <c r="D86">
+        <v>-0.02514293056726943</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.0008258704650189511</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01208204384436354</v>
+      </c>
+      <c r="C87">
+        <v>0.1290055815055952</v>
+      </c>
+      <c r="D87">
+        <v>-0.07121650437991381</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.008783816865837431</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002881073038187567</v>
+      </c>
+      <c r="C88">
+        <v>0.06389713233849965</v>
+      </c>
+      <c r="D88">
+        <v>-0.02831147384619604</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01215372407799204</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.003223625545790843</v>
+      </c>
+      <c r="C89">
+        <v>0.1317195202902826</v>
+      </c>
+      <c r="D89">
+        <v>0.3217333497048094</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002767357430987792</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.005254644707186827</v>
+      </c>
+      <c r="C90">
+        <v>0.1138826042973952</v>
+      </c>
+      <c r="D90">
+        <v>0.3155329057257784</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002334732779576215</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01155786649916136</v>
+      </c>
+      <c r="C91">
+        <v>0.09896503488570094</v>
+      </c>
+      <c r="D91">
+        <v>-0.0268598202416847</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.006313030697054815</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.000709374014288283</v>
+      </c>
+      <c r="C92">
+        <v>0.1257494534567224</v>
+      </c>
+      <c r="D92">
+        <v>0.3262900588335855</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.00206988873311843</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.00315774165219439</v>
+      </c>
+      <c r="C93">
+        <v>0.1020637315464457</v>
+      </c>
+      <c r="D93">
+        <v>0.301197254020739</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01012965120896685</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02256203176771435</v>
+      </c>
+      <c r="C94">
+        <v>0.1391102939202992</v>
+      </c>
+      <c r="D94">
+        <v>-0.0514960087963888</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006481979857041918</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01645454030369011</v>
+      </c>
+      <c r="C95">
+        <v>0.1216948677327502</v>
+      </c>
+      <c r="D95">
+        <v>-0.06879477823546988</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0166748361989736</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03715816216123157</v>
+      </c>
+      <c r="C97">
+        <v>0.2231878327162898</v>
+      </c>
+      <c r="D97">
+        <v>0.002220247853235377</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01123964901949891</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.04005897057415595</v>
+      </c>
+      <c r="C98">
+        <v>0.2623939550534892</v>
+      </c>
+      <c r="D98">
+        <v>-0.03307085636267232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9865667999280157</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.980310158937394</v>
+      </c>
+      <c r="C99">
+        <v>-0.1230909532090758</v>
+      </c>
+      <c r="D99">
+        <v>0.02561182546256542</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0008574709113015958</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003496079112799373</v>
+      </c>
+      <c r="C101">
+        <v>0.04757422144534051</v>
+      </c>
+      <c r="D101">
+        <v>-0.01066582982306275</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
